--- a/biology/Zoologie/Afropisaura/Afropisaura.xlsx
+++ b/biology/Zoologie/Afropisaura/Afropisaura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afropisaura est un genre d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afropisaura est un genre d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 17.0, 30/04/2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 17.0, 30/04/2016) :
 Afropisaura ducis (Strand, 1913)
 Afropisaura rothiformis (Strand, 1908)
 Afropisaura valida (Simon, 1886)</t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Blandin, 1976 : Études sur les Pisauridae africaines VI. Définition des genres Pisaura Simon, 1885, Pisaurellus Roewer, 1961, Afropisaura n. gen. et mise au point sur les espèces des genres Afropisaura and Pisaurellus (Araneae - Pisauridae - Pisaurinae). Revue Zoologique Africaine, vol. 90, no 4, p. 917-939 (texte intégral).</t>
         </is>
